--- a/dataset/index_fin.xlsx
+++ b/dataset/index_fin.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Недостаточно данных для расчета индекса финансового риска</t>
+          <t>Низкий риск</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Низкий риск</t>
+          <t>Высокий риск</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Высокий риск</t>
+          <t>Недостаточно данных для расчета индекса финансового риска</t>
         </is>
       </c>
     </row>
